--- a/ex/villagers.xlsx
+++ b/ex/villagers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>User1</t>
   </si>
@@ -376,6 +376,15 @@
   </si>
   <si>
     <t>id-villager</t>
+  </si>
+  <si>
+    <t>Студентов&gt;15% = студенческий</t>
+  </si>
+  <si>
+    <t>Рабочих&gt;15% = рабочий</t>
+  </si>
+  <si>
+    <t>Учёных&gt;15% = учёный</t>
   </si>
 </sst>
 </file>
@@ -700,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A57"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +722,12 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -737,7 +747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -757,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -777,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -816,8 +829,11 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -836,8 +852,11 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -857,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -877,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -897,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -917,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -937,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -957,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -977,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -997,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1017,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
